--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_0_bus_ward34_solid.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_0_bus_ward34_solid.xlsx
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480242</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566904</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -719,55 +719,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.863177714843981</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="D2">
-        <v>4.863177714843981</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>308.8532659060377</v>
+        <v>288.675150957904</v>
       </c>
       <c r="G2">
-        <v>308.8532659060377</v>
+        <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497097</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269700827</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.4816112092732</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104205</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563993</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>1.019215741776075</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.019215741779432</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>0.6942864409584063</v>
+        <v>-8.693515171649831E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.3057135588751</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.280597825194008</v>
+        <v>0.9526279646671965</v>
       </c>
       <c r="O3">
-        <v>0.3322944650683974</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.341247424108698</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>10.99825619233476</v>
+        <v>1.45739135513069E-10</v>
       </c>
       <c r="R3">
-        <v>-75.72850324220332</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>176.6777310737757</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.41949245380395</v>
+        <v>0.9526279646404253</v>
       </c>
       <c r="O4">
-        <v>0.4489790177716168</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.431729696083625</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>10.39348197090714</v>
+        <v>1.564840972581282E-09</v>
       </c>
       <c r="R4">
-        <v>-87.1208700437594</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>172.2800687715841</v>
+        <v>179.9999999984264</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.488990775115979</v>
+        <v>0.9526279646315017</v>
       </c>
       <c r="O5">
-        <v>0.5116484296329764</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.479838924120993</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q5">
-        <v>10.13341963752301</v>
+        <v>2.037876454694116E-09</v>
       </c>
       <c r="R5">
-        <v>-90.79850190153658</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>170.2887202517609</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.488990775115979</v>
+        <v>0.9526279646315017</v>
       </c>
       <c r="O6">
-        <v>0.5116484296329762</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.479838924120993</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q6">
-        <v>10.13341963752301</v>
+        <v>2.037881101507775E-09</v>
       </c>
       <c r="R6">
-        <v>-90.79850190153658</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>170.2887202517609</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
@@ -1086,55 +1086,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.938073210064881</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="D2">
-        <v>3.938073210064881</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>250.1012390711354</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="G2">
-        <v>250.1012390711354</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497097</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269700827</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.4816112092732</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104205</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563993</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>1.075939362406221</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2531489337783606</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.945006710162156</v>
+        <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>6.771682693447364</v>
+        <v>5.766209884997124</v>
       </c>
       <c r="R2">
-        <v>-120.3411351877302</v>
+        <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>174.4370409856923</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.278306958338069</v>
+        <v>1.020226441315021</v>
       </c>
       <c r="O3">
-        <v>0.4676882826869449</v>
+        <v>0.2400406981630193</v>
       </c>
       <c r="P3">
-        <v>1.213973454349709</v>
+        <v>0.8960735770061722</v>
       </c>
       <c r="Q3">
-        <v>15.44445885325182</v>
+        <v>5.766209884977174</v>
       </c>
       <c r="R3">
-        <v>-93.03880664093016</v>
+        <v>-121.3466079609366</v>
       </c>
       <c r="S3">
-        <v>174.0134090595042</v>
+        <v>173.4315681785683</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.391281458404157</v>
+        <v>1.020226441292308</v>
       </c>
       <c r="O4">
-        <v>0.5780896730853139</v>
+        <v>0.2400406981651698</v>
       </c>
       <c r="P4">
-        <v>1.301512782750018</v>
+        <v>0.8960735770323204</v>
       </c>
       <c r="Q4">
-        <v>15.25333528239894</v>
+        <v>5.76620988601805</v>
       </c>
       <c r="R4">
-        <v>-95.72591054727449</v>
+        <v>-121.3466079469512</v>
       </c>
       <c r="S4">
-        <v>170.7514168534012</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.447773834272986</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O5">
-        <v>0.6336423365153628</v>
+        <v>0.2400406981658867</v>
       </c>
       <c r="P5">
-        <v>1.346708870497227</v>
+        <v>0.8960735770410364</v>
       </c>
       <c r="Q5">
-        <v>15.16895945660211</v>
+        <v>5.766209886365009</v>
       </c>
       <c r="R5">
-        <v>-96.71726559068914</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S5">
-        <v>169.2818093022971</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.447773834272986</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O6">
-        <v>0.6336423365153626</v>
+        <v>0.2400406981658866</v>
       </c>
       <c r="P6">
-        <v>1.346708870497227</v>
+        <v>0.8960735770410364</v>
       </c>
       <c r="Q6">
-        <v>15.16895945660211</v>
+        <v>5.766209886365011</v>
       </c>
       <c r="R6">
-        <v>-96.71726559068915</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S6">
-        <v>169.2818093022971</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1453,55 +1453,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.938073210064881</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="D2">
-        <v>3.938073210064881</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>250.1012390711354</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="G2">
-        <v>250.1012390711354</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497097</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269700827</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.4816112092732</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104205</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563993</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>1.075939362406221</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2531489337783606</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.945006710162156</v>
+        <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>6.771682693447364</v>
+        <v>5.766209884997124</v>
       </c>
       <c r="R2">
-        <v>-120.3411351877302</v>
+        <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>174.4370409856923</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.278306958338069</v>
+        <v>1.020226441315021</v>
       </c>
       <c r="O3">
-        <v>0.4676882826869449</v>
+        <v>0.2400406981630193</v>
       </c>
       <c r="P3">
-        <v>1.213973454349709</v>
+        <v>0.8960735770061722</v>
       </c>
       <c r="Q3">
-        <v>15.44445885325182</v>
+        <v>5.766209884977174</v>
       </c>
       <c r="R3">
-        <v>-93.03880664093016</v>
+        <v>-121.3466079609366</v>
       </c>
       <c r="S3">
-        <v>174.0134090595042</v>
+        <v>173.4315681785683</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.391281458404157</v>
+        <v>1.020226441292308</v>
       </c>
       <c r="O4">
-        <v>0.5780896730853139</v>
+        <v>0.2400406981651698</v>
       </c>
       <c r="P4">
-        <v>1.301512782750018</v>
+        <v>0.8960735770323204</v>
       </c>
       <c r="Q4">
-        <v>15.25333528239894</v>
+        <v>5.76620988601805</v>
       </c>
       <c r="R4">
-        <v>-95.72591054727449</v>
+        <v>-121.3466079469512</v>
       </c>
       <c r="S4">
-        <v>170.7514168534012</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.447773834272986</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O5">
-        <v>0.6336423365153628</v>
+        <v>0.2400406981658867</v>
       </c>
       <c r="P5">
-        <v>1.346708870497227</v>
+        <v>0.8960735770410364</v>
       </c>
       <c r="Q5">
-        <v>15.16895945660211</v>
+        <v>5.766209886365009</v>
       </c>
       <c r="R5">
-        <v>-96.71726559068914</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S5">
-        <v>169.2818093022971</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.447773834272986</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O6">
-        <v>0.6336423365153626</v>
+        <v>0.2400406981658866</v>
       </c>
       <c r="P6">
-        <v>1.346708870497227</v>
+        <v>0.8960735770410364</v>
       </c>
       <c r="Q6">
-        <v>15.16895945660211</v>
+        <v>5.766209886365011</v>
       </c>
       <c r="R6">
-        <v>-96.71726559068915</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S6">
-        <v>169.2818093022971</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1820,55 +1820,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.882943925048683</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>3.882943925048683</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>246.6000592412587</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>246.6000592412587</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.504993724976219</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142942</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.02440438250418</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749397431</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695286</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229341</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.9247501897594141</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9247501897594226</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.446252548535581</v>
+        <v>1.720016353742459E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-178.5537474518462</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.111620066786422</v>
+        <v>0.866025403678968</v>
       </c>
       <c r="O3">
-        <v>0.2789874277572767</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.202594269846784</v>
+        <v>0.866025403890528</v>
       </c>
       <c r="Q3">
-        <v>13.17328697971738</v>
+        <v>4.10660821520154E-10</v>
       </c>
       <c r="R3">
-        <v>-64.47315417103617</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9246679508913</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.275063789581392</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
-        <v>0.3959839147391732</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.29028898978397</v>
+        <v>0.8660254039148652</v>
       </c>
       <c r="Q4">
-        <v>11.19933568984733</v>
+        <v>3.135348748144552E-09</v>
       </c>
       <c r="R4">
-        <v>-85.49666710921744</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>173.4530761108524</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.357250507119772</v>
+        <v>0.8660254036465178</v>
       </c>
       <c r="O5">
-        <v>0.466459990708449</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.339943674589544</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>10.39111253644534</v>
+        <v>4.043571101843081E-09</v>
       </c>
       <c r="R5">
-        <v>-91.6554186381408</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>170.4866384631622</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.357250507119772</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.466459990708449</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.339943674589544</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>10.39111253644534</v>
+        <v>4.043577153971955E-09</v>
       </c>
       <c r="R6">
-        <v>-91.6554186381408</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>170.4866384631622</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
   </sheetData>
@@ -2187,55 +2187,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.882943925048683</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>3.882943925048683</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>246.6000592412587</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>246.6000592412587</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.504993724976219</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142942</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.02440438250418</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749397431</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695286</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229341</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.9247501897594141</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9247501897594226</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>1.446252548535581</v>
+        <v>1.720016353742459E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-178.5537474518462</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.111620066786422</v>
+        <v>0.866025403678968</v>
       </c>
       <c r="O3">
-        <v>0.2789874277572767</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.202594269846784</v>
+        <v>0.866025403890528</v>
       </c>
       <c r="Q3">
-        <v>13.17328697971738</v>
+        <v>4.10660821520154E-10</v>
       </c>
       <c r="R3">
-        <v>-64.47315417103617</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9246679508913</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.275063789581392</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
-        <v>0.3959839147391732</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.29028898978397</v>
+        <v>0.8660254039148652</v>
       </c>
       <c r="Q4">
-        <v>11.19933568984733</v>
+        <v>3.135348748144552E-09</v>
       </c>
       <c r="R4">
-        <v>-85.49666710921744</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>173.4530761108524</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.357250507119772</v>
+        <v>0.8660254036465178</v>
       </c>
       <c r="O5">
-        <v>0.466459990708449</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.339943674589544</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>10.39111253644534</v>
+        <v>4.043571101843081E-09</v>
       </c>
       <c r="R5">
-        <v>-91.6554186381408</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>170.4866384631622</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.357250507119772</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.466459990708449</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.339943674589544</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>10.39111253644534</v>
+        <v>4.043577153971955E-09</v>
       </c>
       <c r="R6">
-        <v>-91.6554186381408</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>170.4866384631622</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
   </sheetData>
@@ -2554,55 +2554,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.217377818361378</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="D2">
-        <v>3.217377818361378</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>204.330934446724</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="G2">
-        <v>204.330934446724</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.504993724976219</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142942</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.02440438250418</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749397431</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695286</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229341</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.9709236687432994</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.2068208793726919</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
-        <v>0.8613875541310859</v>
+        <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>6.765369658779691</v>
+        <v>5.173976904115774</v>
       </c>
       <c r="R2">
-        <v>-120.5535275416597</v>
+        <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>175.7573273399619</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.116608879727612</v>
+        <v>0.9220324943451751</v>
       </c>
       <c r="O3">
-        <v>0.3729243879723572</v>
+        <v>0.196406347216673</v>
       </c>
       <c r="P3">
-        <v>1.09117201040089</v>
+        <v>0.8180121062689188</v>
       </c>
       <c r="Q3">
-        <v>16.65410178906774</v>
+        <v>5.173976904114542</v>
       </c>
       <c r="R3">
-        <v>-86.90345110882454</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
-        <v>177.2492085952491</v>
+        <v>174.1659345864976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.253828295786092</v>
+        <v>0.9220324943235484</v>
       </c>
       <c r="O4">
-        <v>0.5007383799230604</v>
+        <v>0.1964063472443384</v>
       </c>
       <c r="P4">
-        <v>1.182453812977849</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>15.40389276991299</v>
+        <v>5.173976906219861</v>
       </c>
       <c r="R4">
-        <v>-94.36123747005314</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
-        <v>171.917846545726</v>
+        <v>174.1659345844574</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.322627006002218</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O5">
-        <v>0.5667396997640987</v>
+        <v>0.1964063472535602</v>
       </c>
       <c r="P5">
-        <v>1.231498741686285</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q5">
-        <v>14.87619166982044</v>
+        <v>5.173976906921631</v>
       </c>
       <c r="R5">
-        <v>-96.80873439518155</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S5">
-        <v>169.5586546661708</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.322627006002218</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O6">
-        <v>0.5667396997640989</v>
+        <v>0.1964063472535603</v>
       </c>
       <c r="P6">
-        <v>1.231498741686285</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q6">
-        <v>14.87619166982044</v>
+        <v>5.173976906921638</v>
       </c>
       <c r="R6">
-        <v>-96.80873439518156</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
-        <v>169.5586546661708</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -2921,55 +2921,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.217377818361378</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="D2">
-        <v>3.217377818361378</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>204.330934446724</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="G2">
-        <v>204.330934446724</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.504993724976219</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142942</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.02440438250418</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749397431</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695286</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229341</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.9709236687432994</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.2068208793726919</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
-        <v>0.8613875541310859</v>
+        <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>6.765369658779691</v>
+        <v>5.173976904115774</v>
       </c>
       <c r="R2">
-        <v>-120.5535275416597</v>
+        <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>175.7573273399619</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.116608879727612</v>
+        <v>0.9220324943451751</v>
       </c>
       <c r="O3">
-        <v>0.3729243879723572</v>
+        <v>0.196406347216673</v>
       </c>
       <c r="P3">
-        <v>1.09117201040089</v>
+        <v>0.8180121062689188</v>
       </c>
       <c r="Q3">
-        <v>16.65410178906774</v>
+        <v>5.173976904114542</v>
       </c>
       <c r="R3">
-        <v>-86.90345110882454</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
-        <v>177.2492085952491</v>
+        <v>174.1659345864976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.253828295786092</v>
+        <v>0.9220324943235484</v>
       </c>
       <c r="O4">
-        <v>0.5007383799230604</v>
+        <v>0.1964063472443384</v>
       </c>
       <c r="P4">
-        <v>1.182453812977849</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>15.40389276991299</v>
+        <v>5.173976906219861</v>
       </c>
       <c r="R4">
-        <v>-94.36123747005314</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
-        <v>171.917846545726</v>
+        <v>174.1659345844574</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.322627006002218</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O5">
-        <v>0.5667396997640987</v>
+        <v>0.1964063472535602</v>
       </c>
       <c r="P5">
-        <v>1.231498741686285</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q5">
-        <v>14.87619166982044</v>
+        <v>5.173976906921631</v>
       </c>
       <c r="R5">
-        <v>-96.80873439518155</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S5">
-        <v>169.5586546661708</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.322627006002218</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O6">
-        <v>0.5667396997640989</v>
+        <v>0.1964063472535603</v>
       </c>
       <c r="P6">
-        <v>1.231498741686285</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q6">
-        <v>14.87619166982044</v>
+        <v>5.173976906921638</v>
       </c>
       <c r="R6">
-        <v>-96.80873439518156</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
-        <v>169.5586546661708</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.487744843084377</v>
+        <v>5.248639108526413</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>348.518605863862</v>
+        <v>333.3333522405614</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3306,43 +3306,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419464</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496992</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268794936</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
-        <v>11.48161120916195</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104289</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>13.24394453563967</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6640171027346654</v>
+        <v>0.635085309874015</v>
       </c>
       <c r="O2">
-        <v>1.150111359082105</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6640171028092159</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>60.4523199117267</v>
+        <v>59.99999999685337</v>
       </c>
       <c r="R2">
-        <v>-89.54768008523841</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>120.452319914068</v>
+        <v>119.9999999996535</v>
       </c>
       <c r="T2">
-        <v>5.487744843084376</v>
+        <v>5.248639108526412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8738201267000371</v>
+        <v>0.6350853099894103</v>
       </c>
       <c r="O3">
-        <v>1.36149952946392</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.8343070292287573</v>
+        <v>0.6350853098300094</v>
       </c>
       <c r="Q3">
-        <v>56.4357645511598</v>
+        <v>60.00000000239916</v>
       </c>
       <c r="R3">
-        <v>-87.40844725611849</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>130.756289669365</v>
+        <v>120.0000000058973</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9327691535211206</v>
+        <v>0.6350853100298038</v>
       </c>
       <c r="O4">
-        <v>1.442450791405496</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P4">
-        <v>0.9247966136111111</v>
+        <v>0.6350853098168606</v>
       </c>
       <c r="Q4">
-        <v>52.03810225037881</v>
+        <v>60.00000000166495</v>
       </c>
       <c r="R4">
-        <v>-89.10472715250023</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
-        <v>130.1515154495349</v>
+        <v>120.0000000094205</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9641122234014855</v>
+        <v>0.6350853100432683</v>
       </c>
       <c r="O5">
-        <v>1.483361617970831</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P5">
-        <v>0.970074636767997</v>
+        <v>0.6350853098124776</v>
       </c>
       <c r="Q5">
-        <v>50.04675373110898</v>
+        <v>60.00000000142023</v>
       </c>
       <c r="R5">
-        <v>-89.88310038310192</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S5">
-        <v>129.8914531166061</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9641122234014855</v>
+        <v>0.6350853100432683</v>
       </c>
       <c r="O6">
-        <v>1.483361617970831</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P6">
-        <v>0.9700746367679973</v>
+        <v>0.6350853098124776</v>
       </c>
       <c r="Q6">
-        <v>50.04675373110896</v>
+        <v>60.00000000142023</v>
       </c>
       <c r="R6">
-        <v>-89.88310038310193</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S6">
-        <v>129.8914531166061</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.487744843084377</v>
+        <v>5.248639108526413</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>348.518605863862</v>
+        <v>333.3333522405614</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3691,43 +3691,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419464</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496992</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268794936</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
-        <v>11.48161120916195</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104289</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>13.24394453563967</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6640171027346654</v>
+        <v>0.635085309874015</v>
       </c>
       <c r="O2">
-        <v>1.150111359082105</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6640171028092159</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>60.4523199117267</v>
+        <v>59.99999999685337</v>
       </c>
       <c r="R2">
-        <v>-89.54768008523841</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>120.452319914068</v>
+        <v>119.9999999996535</v>
       </c>
       <c r="T2">
-        <v>5.487744843084376</v>
+        <v>5.248639108526412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8738201267000371</v>
+        <v>0.6350853099894103</v>
       </c>
       <c r="O3">
-        <v>1.36149952946392</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.8343070292287573</v>
+        <v>0.6350853098300094</v>
       </c>
       <c r="Q3">
-        <v>56.4357645511598</v>
+        <v>60.00000000239916</v>
       </c>
       <c r="R3">
-        <v>-87.40844725611849</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>130.756289669365</v>
+        <v>120.0000000058973</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9327691535211206</v>
+        <v>0.6350853100298038</v>
       </c>
       <c r="O4">
-        <v>1.442450791405496</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P4">
-        <v>0.9247966136111111</v>
+        <v>0.6350853098168606</v>
       </c>
       <c r="Q4">
-        <v>52.03810225037881</v>
+        <v>60.00000000166495</v>
       </c>
       <c r="R4">
-        <v>-89.10472715250023</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
-        <v>130.1515154495349</v>
+        <v>120.0000000094205</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9641122234014855</v>
+        <v>0.6350853100432683</v>
       </c>
       <c r="O5">
-        <v>1.483361617970831</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P5">
-        <v>0.970074636767997</v>
+        <v>0.6350853098124776</v>
       </c>
       <c r="Q5">
-        <v>50.04675373110898</v>
+        <v>60.00000000142023</v>
       </c>
       <c r="R5">
-        <v>-89.88310038310192</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S5">
-        <v>129.8914531166061</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9641122234014855</v>
+        <v>0.6350853100432683</v>
       </c>
       <c r="O6">
-        <v>1.483361617970831</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P6">
-        <v>0.9700746367679973</v>
+        <v>0.6350853098124776</v>
       </c>
       <c r="Q6">
-        <v>50.04675373110896</v>
+        <v>60.00000000142023</v>
       </c>
       <c r="R6">
-        <v>-89.88310038310193</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S6">
-        <v>129.8914531166061</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.722004896165584</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>236.3790581598935</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4076,43 +4076,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419464</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496992</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268794936</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
-        <v>11.48161120916195</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104289</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>13.24394453563967</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.7117356679597215</v>
+        <v>0.6918398877278025</v>
       </c>
       <c r="O2">
-        <v>1.13163358406674</v>
+        <v>1.100000023874157</v>
       </c>
       <c r="P2">
-        <v>0.861937256750485</v>
+        <v>0.8378427578966808</v>
       </c>
       <c r="Q2">
-        <v>41.1187575935481</v>
+        <v>40.40951795604943</v>
       </c>
       <c r="R2">
-        <v>-89.29076036245922</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>129.666711333038</v>
+        <v>128.9574716956184</v>
       </c>
       <c r="T2">
-        <v>3.722004896165584</v>
+        <v>3.617960382473002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8534935443230569</v>
+        <v>0.6918398877714419</v>
       </c>
       <c r="O3">
-        <v>1.264234804304447</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.966318712333438</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>43.93199719129995</v>
+        <v>40.40951796258039</v>
       </c>
       <c r="R3">
-        <v>-86.26975327411044</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>136.1533058187098</v>
+        <v>128.9574716984651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9094919716535611</v>
+        <v>0.6918398877978492</v>
       </c>
       <c r="O4">
-        <v>1.323797174699311</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P4">
-        <v>1.027974373664762</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
-        <v>42.24808941508527</v>
+        <v>40.40951796344662</v>
       </c>
       <c r="R4">
-        <v>-86.98195657742509</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>136.2798059772631</v>
+        <v>128.9574717002523</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9377593250415308</v>
+        <v>0.6918398878066517</v>
       </c>
       <c r="O5">
-        <v>1.353649997769682</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P5">
-        <v>1.058803919298014</v>
+        <v>0.8378427578019155</v>
       </c>
       <c r="Q5">
-        <v>41.48187983487277</v>
+        <v>40.40951796373537</v>
       </c>
       <c r="R5">
-        <v>-87.31452927870528</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
-        <v>136.3375312034416</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.937759325041531</v>
+        <v>0.6918398878066517</v>
       </c>
       <c r="O6">
-        <v>1.353649997769682</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P6">
-        <v>1.058803919298015</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
-        <v>41.48187983487278</v>
+        <v>40.40951796373537</v>
       </c>
       <c r="R6">
-        <v>-87.31452927870527</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>136.3375312034417</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4404,22 +4404,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480242</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566904</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4594,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.722004896165584</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>236.3790581598935</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4612,43 +4612,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419464</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496992</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268794936</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
-        <v>11.48161120916195</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.324394474104289</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>13.24394453563967</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.7117356679597215</v>
+        <v>0.6918398877278025</v>
       </c>
       <c r="O2">
-        <v>1.13163358406674</v>
+        <v>1.100000023874157</v>
       </c>
       <c r="P2">
-        <v>0.861937256750485</v>
+        <v>0.8378427578966808</v>
       </c>
       <c r="Q2">
-        <v>41.1187575935481</v>
+        <v>40.40951795604943</v>
       </c>
       <c r="R2">
-        <v>-89.29076036245922</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>129.666711333038</v>
+        <v>128.9574716956184</v>
       </c>
       <c r="T2">
-        <v>3.722004896165584</v>
+        <v>3.617960382473002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8534935443230569</v>
+        <v>0.6918398877714419</v>
       </c>
       <c r="O3">
-        <v>1.264234804304447</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.966318712333438</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>43.93199719129995</v>
+        <v>40.40951796258039</v>
       </c>
       <c r="R3">
-        <v>-86.26975327411044</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>136.1533058187098</v>
+        <v>128.9574716984651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9094919716535611</v>
+        <v>0.6918398877978492</v>
       </c>
       <c r="O4">
-        <v>1.323797174699311</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P4">
-        <v>1.027974373664762</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
-        <v>42.24808941508527</v>
+        <v>40.40951796344662</v>
       </c>
       <c r="R4">
-        <v>-86.98195657742509</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>136.2798059772631</v>
+        <v>128.9574717002523</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9377593250415308</v>
+        <v>0.6918398878066517</v>
       </c>
       <c r="O5">
-        <v>1.353649997769682</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P5">
-        <v>1.058803919298014</v>
+        <v>0.8378427578019155</v>
       </c>
       <c r="Q5">
-        <v>41.48187983487277</v>
+        <v>40.40951796373537</v>
       </c>
       <c r="R5">
-        <v>-87.31452927870528</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
-        <v>136.3375312034416</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.937759325041531</v>
+        <v>0.6918398878066517</v>
       </c>
       <c r="O6">
-        <v>1.353649997769682</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P6">
-        <v>1.058803919298015</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
-        <v>41.48187983487278</v>
+        <v>40.40951796373537</v>
       </c>
       <c r="R6">
-        <v>-87.31452927870527</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>136.3375312034417</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.384850024942628</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>278.475377648244</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976313</v>
+        <v>1.504993724976285</v>
       </c>
       <c r="I2">
-        <v>15.04993697142824</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383662633</v>
+        <v>1.504993722648795</v>
       </c>
       <c r="K2">
-        <v>13.05836749310264</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695373</v>
+        <v>1.504993720695422</v>
       </c>
       <c r="M2">
-        <v>15.0499369722931</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.602916857225652</v>
+        <v>0.5773502691155638</v>
       </c>
       <c r="O2">
-        <v>1.044282629580193</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.6029168573638127</v>
+        <v>0.5773502692541777</v>
       </c>
       <c r="Q2">
-        <v>60.94286739022171</v>
+        <v>59.99999999647624</v>
       </c>
       <c r="R2">
-        <v>-89.05713260654862</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>120.9428673890861</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.384850024942627</v>
+        <v>4.198911195792622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7840651083782053</v>
+        <v>0.5773502692231761</v>
       </c>
       <c r="O3">
-        <v>1.212619835370195</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P3">
-        <v>0.7247519217827059</v>
+        <v>0.5773502691507315</v>
       </c>
       <c r="Q3">
-        <v>59.57194689808597</v>
+        <v>60.00000000216511</v>
       </c>
       <c r="R3">
-        <v>-85.5482415581734</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S3">
-        <v>132.6699018273648</v>
+        <v>120.0000000019795</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8412401439387494</v>
+        <v>0.5773502692712913</v>
       </c>
       <c r="O4">
-        <v>1.302160851843594</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P4">
-        <v>0.8313136471099548</v>
+        <v>0.577350269150172</v>
       </c>
       <c r="Q4">
-        <v>52.94969096004074</v>
+        <v>59.99999999947248</v>
       </c>
       <c r="R4">
-        <v>-88.45129704063565</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>130.6959505399152</v>
+        <v>120.000000007461</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.87361391023604</v>
+        <v>0.5773502692873299</v>
       </c>
       <c r="O5">
-        <v>1.348059247637011</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P5">
-        <v>0.8848975857856741</v>
+        <v>0.5773502691499852</v>
       </c>
       <c r="Q5">
-        <v>49.98325331258335</v>
+        <v>59.99999999857495</v>
       </c>
       <c r="R5">
-        <v>-89.75654419345146</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>129.8877273872537</v>
+        <v>120.0000000092882</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.87361391023604</v>
+        <v>0.5773502692873299</v>
       </c>
       <c r="O6">
-        <v>1.348059247637011</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.8848975857856741</v>
+        <v>0.5773502691499852</v>
       </c>
       <c r="Q6">
-        <v>49.98325331258336</v>
+        <v>59.99999999857495</v>
       </c>
       <c r="R6">
-        <v>-89.75654419345146</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>129.8877273872537</v>
+        <v>120.0000000092882</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.384850024942628</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>278.475377648244</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5382,43 +5382,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976313</v>
+        <v>1.504993724976285</v>
       </c>
       <c r="I2">
-        <v>15.04993697142824</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383662633</v>
+        <v>1.504993722648795</v>
       </c>
       <c r="K2">
-        <v>13.05836749310264</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695373</v>
+        <v>1.504993720695422</v>
       </c>
       <c r="M2">
-        <v>15.0499369722931</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.602916857225652</v>
+        <v>0.5773502691155638</v>
       </c>
       <c r="O2">
-        <v>1.044282629580193</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.6029168573638127</v>
+        <v>0.5773502692541777</v>
       </c>
       <c r="Q2">
-        <v>60.94286739022171</v>
+        <v>59.99999999647624</v>
       </c>
       <c r="R2">
-        <v>-89.05713260654862</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>120.9428673890861</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.384850024942627</v>
+        <v>4.198911195792622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7840651083782053</v>
+        <v>0.5773502692231761</v>
       </c>
       <c r="O3">
-        <v>1.212619835370195</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P3">
-        <v>0.7247519217827059</v>
+        <v>0.5773502691507315</v>
       </c>
       <c r="Q3">
-        <v>59.57194689808597</v>
+        <v>60.00000000216511</v>
       </c>
       <c r="R3">
-        <v>-85.5482415581734</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S3">
-        <v>132.6699018273648</v>
+        <v>120.0000000019795</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8412401439387494</v>
+        <v>0.5773502692712913</v>
       </c>
       <c r="O4">
-        <v>1.302160851843594</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P4">
-        <v>0.8313136471099548</v>
+        <v>0.577350269150172</v>
       </c>
       <c r="Q4">
-        <v>52.94969096004074</v>
+        <v>59.99999999947248</v>
       </c>
       <c r="R4">
-        <v>-88.45129704063565</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>130.6959505399152</v>
+        <v>120.000000007461</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.87361391023604</v>
+        <v>0.5773502692873299</v>
       </c>
       <c r="O5">
-        <v>1.348059247637011</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P5">
-        <v>0.8848975857856741</v>
+        <v>0.5773502691499852</v>
       </c>
       <c r="Q5">
-        <v>49.98325331258335</v>
+        <v>59.99999999857495</v>
       </c>
       <c r="R5">
-        <v>-89.75654419345146</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>129.8877273872537</v>
+        <v>120.0000000092882</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.87361391023604</v>
+        <v>0.5773502692873299</v>
       </c>
       <c r="O6">
-        <v>1.348059247637011</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.8848975857856741</v>
+        <v>0.5773502691499852</v>
       </c>
       <c r="Q6">
-        <v>49.98325331258336</v>
+        <v>59.99999999857495</v>
       </c>
       <c r="R6">
-        <v>-89.75654419345146</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>129.8877273872537</v>
+        <v>120.0000000092882</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.097359689849922</v>
+        <v>3.012913138756735</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>196.7087595783143</v>
+        <v>191.3456832876778</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5767,43 +5767,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976313</v>
+        <v>1.504993724976285</v>
       </c>
       <c r="I2">
-        <v>15.04993697142824</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383662633</v>
+        <v>1.504993722648795</v>
       </c>
       <c r="K2">
-        <v>13.05836749310264</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695373</v>
+        <v>1.504993720695422</v>
       </c>
       <c r="M2">
-        <v>15.0499369722931</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6357601476800753</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>1.028028206314177</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.7682452243883878</v>
+        <v>0.7472997527351805</v>
       </c>
       <c r="Q2">
-        <v>42.80735864834028</v>
+        <v>41.77463363119259</v>
       </c>
       <c r="R2">
-        <v>-88.96727498302819</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>129.1418833366644</v>
+        <v>128.1091583196818</v>
       </c>
       <c r="T2">
-        <v>3.097359689849922</v>
+        <v>3.012913138756735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7545053523705643</v>
+        <v>0.6184267550404211</v>
       </c>
       <c r="O3">
-        <v>1.134077765038047</v>
+        <v>0.9999999999908704</v>
       </c>
       <c r="P3">
-        <v>0.8429910771758801</v>
+        <v>0.7472997526577974</v>
       </c>
       <c r="Q3">
-        <v>46.86782373117516</v>
+        <v>41.77463363810642</v>
       </c>
       <c r="R3">
-        <v>-85.11730162742303</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S3">
-        <v>136.5876637971138</v>
+        <v>128.1091583228108</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8178561317546257</v>
+        <v>0.6184267550800501</v>
       </c>
       <c r="O4">
-        <v>1.204877983726955</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P4">
-        <v>0.9201164189463099</v>
+        <v>0.747299752654525</v>
       </c>
       <c r="Q4">
-        <v>43.59779034551811</v>
+        <v>41.77463363817502</v>
       </c>
       <c r="R4">
-        <v>-86.67516203425205</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S4">
-        <v>136.0262588875809</v>
+        <v>128.1091583258394</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8504180764285934</v>
+        <v>0.6184267550932598</v>
       </c>
       <c r="O5">
-        <v>1.240583465413875</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P5">
-        <v>0.9587082185156163</v>
+        <v>0.7472997526534342</v>
       </c>
       <c r="Q5">
-        <v>42.14780840508975</v>
+        <v>41.77463363819791</v>
       </c>
       <c r="R5">
-        <v>-87.38715066037385</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S5">
-        <v>135.7794407151366</v>
+        <v>128.1091583268489</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8504180764285934</v>
+        <v>0.6184267550932598</v>
       </c>
       <c r="O6">
-        <v>1.240583465413875</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P6">
-        <v>0.9587082185156163</v>
+        <v>0.7472997526534343</v>
       </c>
       <c r="Q6">
-        <v>42.14780840508974</v>
+        <v>41.77463363819791</v>
       </c>
       <c r="R6">
-        <v>-87.38715066037385</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S6">
-        <v>135.7794407151366</v>
+        <v>128.1091583268489</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.097359689849922</v>
+        <v>3.012913138756735</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>196.7087595783143</v>
+        <v>191.3456832876778</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6152,43 +6152,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976313</v>
+        <v>1.504993724976285</v>
       </c>
       <c r="I2">
-        <v>15.04993697142824</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383662633</v>
+        <v>1.504993722648795</v>
       </c>
       <c r="K2">
-        <v>13.05836749310264</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>1.504993720695373</v>
+        <v>1.504993720695422</v>
       </c>
       <c r="M2">
-        <v>15.0499369722931</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6357601476800753</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>1.028028206314177</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.7682452243883878</v>
+        <v>0.7472997527351805</v>
       </c>
       <c r="Q2">
-        <v>42.80735864834028</v>
+        <v>41.77463363119259</v>
       </c>
       <c r="R2">
-        <v>-88.96727498302819</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>129.1418833366644</v>
+        <v>128.1091583196818</v>
       </c>
       <c r="T2">
-        <v>3.097359689849922</v>
+        <v>3.012913138756735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7545053523705643</v>
+        <v>0.6184267550404211</v>
       </c>
       <c r="O3">
-        <v>1.134077765038047</v>
+        <v>0.9999999999908704</v>
       </c>
       <c r="P3">
-        <v>0.8429910771758801</v>
+        <v>0.7472997526577974</v>
       </c>
       <c r="Q3">
-        <v>46.86782373117516</v>
+        <v>41.77463363810642</v>
       </c>
       <c r="R3">
-        <v>-85.11730162742303</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S3">
-        <v>136.5876637971138</v>
+        <v>128.1091583228108</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8178561317546257</v>
+        <v>0.6184267550800501</v>
       </c>
       <c r="O4">
-        <v>1.204877983726955</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P4">
-        <v>0.9201164189463099</v>
+        <v>0.747299752654525</v>
       </c>
       <c r="Q4">
-        <v>43.59779034551811</v>
+        <v>41.77463363817502</v>
       </c>
       <c r="R4">
-        <v>-86.67516203425205</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S4">
-        <v>136.0262588875809</v>
+        <v>128.1091583258394</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8504180764285934</v>
+        <v>0.6184267550932598</v>
       </c>
       <c r="O5">
-        <v>1.240583465413875</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P5">
-        <v>0.9587082185156163</v>
+        <v>0.7472997526534342</v>
       </c>
       <c r="Q5">
-        <v>42.14780840508975</v>
+        <v>41.77463363819791</v>
       </c>
       <c r="R5">
-        <v>-87.38715066037385</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S5">
-        <v>135.7794407151366</v>
+        <v>128.1091583268489</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8504180764285934</v>
+        <v>0.6184267550932598</v>
       </c>
       <c r="O6">
-        <v>1.240583465413875</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P6">
-        <v>0.9587082185156163</v>
+        <v>0.7472997526534343</v>
       </c>
       <c r="Q6">
-        <v>42.14780840508974</v>
+        <v>41.77463363819791</v>
       </c>
       <c r="R6">
-        <v>-87.38715066037385</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S6">
-        <v>135.7794407151366</v>
+        <v>128.1091583268489</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6522,58 +6522,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.749264446925563</v>
+        <v>5.24863910873685</v>
       </c>
       <c r="D2">
-        <v>5.749264446086448</v>
+        <v>5.248639107970814</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>365.1273313682301</v>
+        <v>333.333352253926</v>
       </c>
       <c r="G2">
-        <v>365.1273313149391</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497097</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269700827</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.4816112092732</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104205</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563993</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6956609736282399</v>
+        <v>0.6350853098347082</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6956609736445808</v>
+        <v>0.6350853098507082</v>
       </c>
       <c r="Q2">
-        <v>0.9477840005956321</v>
+        <v>-4.877415967688552E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0522159985893</v>
+        <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.74926444657879</v>
+        <v>5.248639108420278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.070943916765754</v>
+        <v>0.6350853097237746</v>
       </c>
       <c r="O3">
-        <v>0.4536120894110515</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.13801575829379</v>
+        <v>0.6350853099661088</v>
       </c>
       <c r="Q3">
-        <v>17.92403016698058</v>
+        <v>1.367200135969699E-09</v>
       </c>
       <c r="R3">
-        <v>-75.4750056844503</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>174.4771970576981</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.257492575397362</v>
+        <v>0.6350853097106259</v>
       </c>
       <c r="O4">
-        <v>0.6128970890704079</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.270353052974295</v>
+        <v>0.6350853100065024</v>
       </c>
       <c r="Q4">
-        <v>15.99486972097832</v>
+        <v>4.890293891375653E-09</v>
       </c>
       <c r="R4">
-        <v>-86.86737248591939</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>167.9374538815028</v>
+        <v>-179.9999999991301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.35119065041459</v>
+        <v>0.635085309706243</v>
       </c>
       <c r="O5">
-        <v>0.6984465214161896</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.341790084240381</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q5">
-        <v>15.23047219697663</v>
+        <v>6.064664136487666E-09</v>
       </c>
       <c r="R5">
-        <v>-90.54500434335975</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>165.1691103546893</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.35119065041459</v>
+        <v>0.6350853097062428</v>
       </c>
       <c r="O6">
-        <v>0.6984465214161896</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.341790084240381</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q6">
-        <v>15.23047219697663</v>
+        <v>6.064673299271888E-09</v>
       </c>
       <c r="R6">
-        <v>-90.54500434335975</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>165.1691103546893</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6907,58 +6907,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.749264446925563</v>
+        <v>5.24863910873685</v>
       </c>
       <c r="D2">
-        <v>5.749264446086448</v>
+        <v>5.248639107970814</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>365.1273313682301</v>
+        <v>333.333352253926</v>
       </c>
       <c r="G2">
-        <v>365.1273313149391</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497097</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269700827</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.4816112092732</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104205</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563993</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.6956609736282399</v>
+        <v>0.6350853098347082</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6956609736445808</v>
+        <v>0.6350853098507082</v>
       </c>
       <c r="Q2">
-        <v>0.9477840005956321</v>
+        <v>-4.877415967688552E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0522159985893</v>
+        <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.74926444657879</v>
+        <v>5.248639108420278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.070943916765754</v>
+        <v>0.6350853097237746</v>
       </c>
       <c r="O3">
-        <v>0.4536120894110515</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.13801575829379</v>
+        <v>0.6350853099661088</v>
       </c>
       <c r="Q3">
-        <v>17.92403016698058</v>
+        <v>1.367200135969699E-09</v>
       </c>
       <c r="R3">
-        <v>-75.4750056844503</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>174.4771970576981</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.257492575397362</v>
+        <v>0.6350853097106259</v>
       </c>
       <c r="O4">
-        <v>0.6128970890704079</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.270353052974295</v>
+        <v>0.6350853100065024</v>
       </c>
       <c r="Q4">
-        <v>15.99486972097832</v>
+        <v>4.890293891375653E-09</v>
       </c>
       <c r="R4">
-        <v>-86.86737248591939</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>167.9374538815028</v>
+        <v>-179.9999999991301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.35119065041459</v>
+        <v>0.635085309706243</v>
       </c>
       <c r="O5">
-        <v>0.6984465214161896</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.341790084240381</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q5">
-        <v>15.23047219697663</v>
+        <v>6.064664136487666E-09</v>
       </c>
       <c r="R5">
-        <v>-90.54500434335975</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>165.1691103546893</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.35119065041459</v>
+        <v>0.6350853097062428</v>
       </c>
       <c r="O6">
-        <v>0.6984465214161896</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.341790084240381</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q6">
-        <v>15.23047219697663</v>
+        <v>6.064673299271888E-09</v>
       </c>
       <c r="R6">
-        <v>-90.54500434335975</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>165.1691103546893</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7292,58 +7292,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.831570549300479</v>
+        <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>3.831570548916554</v>
+        <v>3.617960382231206</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>243.3374116863441</v>
+        <v>229.7713440888676</v>
       </c>
       <c r="G2">
-        <v>243.3374116619616</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497097</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269700827</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.4816112092732</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104205</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563993</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.8873103340992302</v>
+        <v>0.8378427578256961</v>
       </c>
       <c r="O2">
-        <v>0.4266087617490401</v>
+        <v>0.4028253111898904</v>
       </c>
       <c r="P2">
-        <v>0.7326872210393716</v>
+        <v>0.6918398877011793</v>
       </c>
       <c r="Q2">
-        <v>10.41782794318073</v>
+        <v>8.957471693504774</v>
       </c>
       <c r="R2">
-        <v>-114.4204023467731</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>161.8698742065481</v>
+        <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.831570549063626</v>
+        <v>3.617960382370078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.112424439245368</v>
+        <v>0.8378427577457518</v>
       </c>
       <c r="O3">
-        <v>0.6550517288757167</v>
+        <v>0.4028253110952156</v>
       </c>
       <c r="P3">
-        <v>1.026062277026919</v>
+        <v>0.6918398877448083</v>
       </c>
       <c r="Q3">
-        <v>22.07433411558391</v>
+        <v>8.957471696351616</v>
       </c>
       <c r="R3">
-        <v>-92.83274204349388</v>
+        <v>-115.8807585788047</v>
       </c>
       <c r="S3">
-        <v>166.6915870376987</v>
+        <v>160.4095179634873</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.239283794772966</v>
+        <v>0.8378427577346264</v>
       </c>
       <c r="O4">
-        <v>0.7809973523576236</v>
+        <v>0.40282531109702</v>
       </c>
       <c r="P4">
-        <v>1.140076421124362</v>
+        <v>0.6918398877712157</v>
       </c>
       <c r="Q4">
-        <v>21.76067241513935</v>
+        <v>8.957471698138786</v>
       </c>
       <c r="R4">
-        <v>-94.15465561810539</v>
+        <v>-115.880758571812</v>
       </c>
       <c r="S4">
-        <v>163.7249604779641</v>
+        <v>160.4095179643535</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.302725365727794</v>
+        <v>0.837842757730918</v>
       </c>
       <c r="O5">
-        <v>0.8440911514011065</v>
+        <v>0.4028253110976216</v>
       </c>
       <c r="P5">
-        <v>1.198065286149987</v>
+        <v>0.6918398877800181</v>
       </c>
       <c r="Q5">
-        <v>21.62675181864784</v>
+        <v>8.95747169873451</v>
       </c>
       <c r="R5">
-        <v>-94.66754839916167</v>
+        <v>-115.8807585694811</v>
       </c>
       <c r="S5">
-        <v>162.455066068039</v>
+        <v>160.4095179646423</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.302725365727794</v>
+        <v>0.8378427577309179</v>
       </c>
       <c r="O6">
-        <v>0.8440911514011065</v>
+        <v>0.4028253110976216</v>
       </c>
       <c r="P6">
-        <v>1.198065286149987</v>
+        <v>0.6918398877800181</v>
       </c>
       <c r="Q6">
-        <v>21.62675181864784</v>
+        <v>8.957471698734512</v>
       </c>
       <c r="R6">
-        <v>-94.66754839916169</v>
+        <v>-115.8807585694811</v>
       </c>
       <c r="S6">
-        <v>162.455066068039</v>
+        <v>160.4095179646423</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7677,58 +7677,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.831570549300479</v>
+        <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>3.831570548916554</v>
+        <v>3.617960382231206</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>243.3374116863441</v>
+        <v>229.7713440888676</v>
       </c>
       <c r="G2">
-        <v>243.3374116619616</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497097</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269700827</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.4816112092732</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104205</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563993</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.8873103340992302</v>
+        <v>0.8378427578256961</v>
       </c>
       <c r="O2">
-        <v>0.4266087617490401</v>
+        <v>0.4028253111898904</v>
       </c>
       <c r="P2">
-        <v>0.7326872210393716</v>
+        <v>0.6918398877011793</v>
       </c>
       <c r="Q2">
-        <v>10.41782794318073</v>
+        <v>8.957471693504774</v>
       </c>
       <c r="R2">
-        <v>-114.4204023467731</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>161.8698742065481</v>
+        <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.831570549063626</v>
+        <v>3.617960382370078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.112424439245368</v>
+        <v>0.8378427577457518</v>
       </c>
       <c r="O3">
-        <v>0.6550517288757167</v>
+        <v>0.4028253110952156</v>
       </c>
       <c r="P3">
-        <v>1.026062277026919</v>
+        <v>0.6918398877448083</v>
       </c>
       <c r="Q3">
-        <v>22.07433411558391</v>
+        <v>8.957471696351616</v>
       </c>
       <c r="R3">
-        <v>-92.83274204349388</v>
+        <v>-115.8807585788047</v>
       </c>
       <c r="S3">
-        <v>166.6915870376987</v>
+        <v>160.4095179634873</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.239283794772966</v>
+        <v>0.8378427577346264</v>
       </c>
       <c r="O4">
-        <v>0.7809973523576236</v>
+        <v>0.40282531109702</v>
       </c>
       <c r="P4">
-        <v>1.140076421124362</v>
+        <v>0.6918398877712157</v>
       </c>
       <c r="Q4">
-        <v>21.76067241513935</v>
+        <v>8.957471698138786</v>
       </c>
       <c r="R4">
-        <v>-94.15465561810539</v>
+        <v>-115.880758571812</v>
       </c>
       <c r="S4">
-        <v>163.7249604779641</v>
+        <v>160.4095179643535</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.302725365727794</v>
+        <v>0.837842757730918</v>
       </c>
       <c r="O5">
-        <v>0.8440911514011065</v>
+        <v>0.4028253110976216</v>
       </c>
       <c r="P5">
-        <v>1.198065286149987</v>
+        <v>0.6918398877800181</v>
       </c>
       <c r="Q5">
-        <v>21.62675181864784</v>
+        <v>8.95747169873451</v>
       </c>
       <c r="R5">
-        <v>-94.66754839916167</v>
+        <v>-115.8807585694811</v>
       </c>
       <c r="S5">
-        <v>162.455066068039</v>
+        <v>160.4095179646423</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.302725365727794</v>
+        <v>0.8378427577309179</v>
       </c>
       <c r="O6">
-        <v>0.8440911514011065</v>
+        <v>0.4028253110976216</v>
       </c>
       <c r="P6">
-        <v>1.198065286149987</v>
+        <v>0.6918398877800181</v>
       </c>
       <c r="Q6">
-        <v>21.62675181864784</v>
+        <v>8.957471698734512</v>
       </c>
       <c r="R6">
-        <v>-94.66754839916169</v>
+        <v>-115.8807585694811</v>
       </c>
       <c r="S6">
-        <v>162.455066068039</v>
+        <v>160.4095179646423</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8062,58 +8062,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.586599792006355</v>
+        <v>4.198911196109216</v>
       </c>
       <c r="D2">
-        <v>4.586599791245636</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>291.2882087037946</v>
+        <v>266.6666760314688</v>
       </c>
       <c r="G2">
-        <v>291.2882086554824</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.504993724976219</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142942</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.02440438250418</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749397431</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695286</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229341</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.6306574492577104</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6306574492378554</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>1.972799410317633</v>
+        <v>-5.812876445766409E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-178.0272005901806</v>
+        <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.586599791691972</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9077977914081604</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
-        <v>0.3805254683747316</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.009916682611221</v>
+        <v>0.5773502692819932</v>
       </c>
       <c r="Q3">
-        <v>21.81710208629277</v>
+        <v>5.928379476720048E-10</v>
       </c>
       <c r="R3">
-        <v>-63.9466073124666</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>179.7458371178945</v>
+        <v>179.9999999993227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.122678134</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
-        <v>0.5401030642933171</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.138743725477915</v>
+        <v>0.5773502693301082</v>
       </c>
       <c r="Q4">
-        <v>17.18645862625493</v>
+        <v>6.074300779342955E-09</v>
       </c>
       <c r="R4">
-        <v>-84.97012024962314</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>169.5628252666771</v>
+        <v>179.9999999966301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.232144924639348</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O5">
-        <v>0.6362290511769693</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.214397092012091</v>
+        <v>0.5773502693461464</v>
       </c>
       <c r="Q5">
-        <v>15.48222228072932</v>
+        <v>7.901463154532278E-09</v>
       </c>
       <c r="R5">
-        <v>-91.1288717776706</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>165.3470809089401</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.232144924639348</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O6">
-        <v>0.6362290511769693</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.214397092012091</v>
+        <v>0.5773502693461464</v>
       </c>
       <c r="Q6">
-        <v>15.48222228072932</v>
+        <v>7.901467401131807E-09</v>
       </c>
       <c r="R6">
-        <v>-91.1288717776706</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>165.3470809089401</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.947041257758793</v>
+        <v>3.617960382498489</v>
       </c>
       <c r="C2">
-        <v>752.0123597809672</v>
+        <v>689.3140322484581</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
-        <v>0.4394653215735361</v>
+        <v>0.4028253111823096</v>
       </c>
       <c r="G2">
-        <v>45.00000000019415</v>
+        <v>45.00000000004626</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8119045910498832</v>
+        <v>0.402825311087638</v>
       </c>
       <c r="G3">
-        <v>3.678458948414037</v>
+        <v>-25.88075857997283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00356086945038</v>
+        <v>0.4028253110894424</v>
       </c>
       <c r="G4">
-        <v>0.9913550417856889</v>
+        <v>-25.88075857298008</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G5">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G6">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
   </sheetData>
@@ -8598,58 +8598,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.586599792006355</v>
+        <v>4.198911196109216</v>
       </c>
       <c r="D2">
-        <v>4.586599791245636</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>291.2882087037946</v>
+        <v>266.6666760314688</v>
       </c>
       <c r="G2">
-        <v>291.2882086554824</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.504993724976219</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142942</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.02440438250418</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749397431</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695286</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229341</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.6306574492577104</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6306574492378554</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>1.972799410317633</v>
+        <v>-5.812876445766409E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-178.0272005901806</v>
+        <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.586599791691972</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9077977914081604</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
-        <v>0.3805254683747316</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.009916682611221</v>
+        <v>0.5773502692819932</v>
       </c>
       <c r="Q3">
-        <v>21.81710208629277</v>
+        <v>5.928379476720048E-10</v>
       </c>
       <c r="R3">
-        <v>-63.9466073124666</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>179.7458371178945</v>
+        <v>179.9999999993227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.122678134</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
-        <v>0.5401030642933171</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.138743725477915</v>
+        <v>0.5773502693301082</v>
       </c>
       <c r="Q4">
-        <v>17.18645862625493</v>
+        <v>6.074300779342955E-09</v>
       </c>
       <c r="R4">
-        <v>-84.97012024962314</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>169.5628252666771</v>
+        <v>179.9999999966301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.232144924639348</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O5">
-        <v>0.6362290511769693</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.214397092012091</v>
+        <v>0.5773502693461464</v>
       </c>
       <c r="Q5">
-        <v>15.48222228072932</v>
+        <v>7.901463154532278E-09</v>
       </c>
       <c r="R5">
-        <v>-91.1288717776706</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>165.3470809089401</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.232144924639348</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O6">
-        <v>0.6362290511769693</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.214397092012091</v>
+        <v>0.5773502693461464</v>
       </c>
       <c r="Q6">
-        <v>15.48222228072932</v>
+        <v>7.901467401131807E-09</v>
       </c>
       <c r="R6">
-        <v>-91.1288717776706</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>165.3470809089401</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8983,58 +8983,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.185550570240271</v>
+        <v>3.012913138951924</v>
       </c>
       <c r="D2">
-        <v>3.185550569861745</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>202.3096327169925</v>
+        <v>191.3456833000739</v>
       </c>
       <c r="G2">
-        <v>202.3096326929529</v>
+        <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.504993724976219</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142942</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.02440438250418</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749397431</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695286</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229341</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.7901194105579015</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
-        <v>0.3546806112201196</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.6538620966840545</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>10.23378961244762</v>
+        <v>8.109158318802294</v>
       </c>
       <c r="R2">
-        <v>-114.9002524831112</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
-        <v>163.8992649255392</v>
+        <v>161.7746336318227</v>
       </c>
       <c r="T2">
-        <v>3.185550570013394</v>
+        <v>3.012913138737344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9560286742715186</v>
+        <v>0.7472997526418615</v>
       </c>
       <c r="O3">
-        <v>0.5288460486055151</v>
+        <v>0.3354590830770564</v>
       </c>
       <c r="P3">
-        <v>0.9009462699878148</v>
+        <v>0.6184267550841059</v>
       </c>
       <c r="Q3">
-        <v>23.82769555573588</v>
+        <v>8.109158321931373</v>
       </c>
       <c r="R3">
-        <v>-88.3660769780052</v>
+        <v>-117.0248837562165</v>
       </c>
       <c r="S3">
-        <v>170.905445516612</v>
+        <v>161.7746336387373</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.112246525507133</v>
+        <v>0.7472997526385891</v>
       </c>
       <c r="O4">
-        <v>0.6805737555085424</v>
+        <v>0.3354590831006825</v>
       </c>
       <c r="P4">
-        <v>1.02852544863708</v>
+        <v>0.6184267551237351</v>
       </c>
       <c r="Q4">
-        <v>22.00285442153374</v>
+        <v>8.109158324959864</v>
       </c>
       <c r="R4">
-        <v>-93.10548194683949</v>
+        <v>-117.0248837452073</v>
       </c>
       <c r="S4">
-        <v>165.1921864282621</v>
+        <v>161.7746336388059</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.190695180233315</v>
+        <v>0.747299752637498</v>
       </c>
       <c r="O5">
-        <v>0.7576567880346463</v>
+        <v>0.3354590831085578</v>
       </c>
       <c r="P5">
-        <v>1.09547100921447</v>
+        <v>0.6184267551369447</v>
       </c>
       <c r="Q5">
-        <v>21.27036089181874</v>
+        <v>8.109158325969366</v>
       </c>
       <c r="R5">
-        <v>-94.757882753823</v>
+        <v>-117.0248837415376</v>
       </c>
       <c r="S5">
-        <v>162.8460495138662</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.190695180233315</v>
+        <v>0.747299752637498</v>
       </c>
       <c r="O6">
-        <v>0.7576567880346466</v>
+        <v>0.3354590831085579</v>
       </c>
       <c r="P6">
-        <v>1.09547100921447</v>
+        <v>0.6184267551369447</v>
       </c>
       <c r="Q6">
-        <v>21.27036089181874</v>
+        <v>8.109158325969368</v>
       </c>
       <c r="R6">
-        <v>-94.757882753823</v>
+        <v>-117.0248837415375</v>
       </c>
       <c r="S6">
-        <v>162.8460495138662</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9368,58 +9368,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.185550570240271</v>
+        <v>3.012913138951924</v>
       </c>
       <c r="D2">
-        <v>3.185550569861745</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>202.3096327169925</v>
+        <v>191.3456833000739</v>
       </c>
       <c r="G2">
-        <v>202.3096326929529</v>
+        <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.504993724976219</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142942</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.02440438250418</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749397431</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>1.504993720695286</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>15.04993697229341</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.7901194105579015</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
-        <v>0.3546806112201196</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.6538620966840545</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>10.23378961244762</v>
+        <v>8.109158318802294</v>
       </c>
       <c r="R2">
-        <v>-114.9002524831112</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
-        <v>163.8992649255392</v>
+        <v>161.7746336318227</v>
       </c>
       <c r="T2">
-        <v>3.185550570013394</v>
+        <v>3.012913138737344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9560286742715186</v>
+        <v>0.7472997526418615</v>
       </c>
       <c r="O3">
-        <v>0.5288460486055151</v>
+        <v>0.3354590830770564</v>
       </c>
       <c r="P3">
-        <v>0.9009462699878148</v>
+        <v>0.6184267550841059</v>
       </c>
       <c r="Q3">
-        <v>23.82769555573588</v>
+        <v>8.109158321931373</v>
       </c>
       <c r="R3">
-        <v>-88.3660769780052</v>
+        <v>-117.0248837562165</v>
       </c>
       <c r="S3">
-        <v>170.905445516612</v>
+        <v>161.7746336387373</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.112246525507133</v>
+        <v>0.7472997526385891</v>
       </c>
       <c r="O4">
-        <v>0.6805737555085424</v>
+        <v>0.3354590831006825</v>
       </c>
       <c r="P4">
-        <v>1.02852544863708</v>
+        <v>0.6184267551237351</v>
       </c>
       <c r="Q4">
-        <v>22.00285442153374</v>
+        <v>8.109158324959864</v>
       </c>
       <c r="R4">
-        <v>-93.10548194683949</v>
+        <v>-117.0248837452073</v>
       </c>
       <c r="S4">
-        <v>165.1921864282621</v>
+        <v>161.7746336388059</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.190695180233315</v>
+        <v>0.747299752637498</v>
       </c>
       <c r="O5">
-        <v>0.7576567880346463</v>
+        <v>0.3354590831085578</v>
       </c>
       <c r="P5">
-        <v>1.09547100921447</v>
+        <v>0.6184267551369447</v>
       </c>
       <c r="Q5">
-        <v>21.27036089181874</v>
+        <v>8.109158325969366</v>
       </c>
       <c r="R5">
-        <v>-94.757882753823</v>
+        <v>-117.0248837415376</v>
       </c>
       <c r="S5">
-        <v>162.8460495138662</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.190695180233315</v>
+        <v>0.747299752637498</v>
       </c>
       <c r="O6">
-        <v>0.7576567880346466</v>
+        <v>0.3354590831085579</v>
       </c>
       <c r="P6">
-        <v>1.09547100921447</v>
+        <v>0.6184267551369447</v>
       </c>
       <c r="Q6">
-        <v>21.27036089181874</v>
+        <v>8.109158325969368</v>
       </c>
       <c r="R6">
-        <v>-94.757882753823</v>
+        <v>-117.0248837415375</v>
       </c>
       <c r="S6">
-        <v>162.8460495138662</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9711,22 +9711,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.947041257758793</v>
+        <v>3.617960382498489</v>
       </c>
       <c r="C2">
-        <v>752.0123597809672</v>
+        <v>689.3140322484581</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
-        <v>0.4394653215735361</v>
+        <v>0.4028253111823096</v>
       </c>
       <c r="G2">
-        <v>45.00000000019415</v>
+        <v>45.00000000004626</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8119045910498832</v>
+        <v>0.402825311087638</v>
       </c>
       <c r="G3">
-        <v>3.678458948414037</v>
+        <v>-25.88075857997283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00356086945038</v>
+        <v>0.4028253110894424</v>
       </c>
       <c r="G4">
-        <v>0.9913550417856889</v>
+        <v>-25.88075857298008</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G5">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G6">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
   </sheetData>
@@ -9862,22 +9862,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.000028026612</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.2894067717462</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10013,22 +10013,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.000028026612</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.2894067717462</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10164,22 +10164,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.277613956240325</v>
+        <v>3.012913138782225</v>
       </c>
       <c r="C2">
-        <v>624.4693289785586</v>
+        <v>574.0370498678896</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
-        <v>0.3649309893789943</v>
+        <v>0.3354590831385722</v>
       </c>
       <c r="G2">
-        <v>44.99999999529343</v>
+        <v>44.99999999355204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6580170546041253</v>
+        <v>0.3354590830466703</v>
       </c>
       <c r="G3">
-        <v>9.905283284221765</v>
+        <v>-27.02488376071816</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8835420919224104</v>
+        <v>0.3354590830702964</v>
       </c>
       <c r="G4">
-        <v>2.447496923043595</v>
+        <v>-27.02488374970881</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G5">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G6">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
   </sheetData>
@@ -10315,22 +10315,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.277613956240325</v>
+        <v>3.012913138782225</v>
       </c>
       <c r="C2">
-        <v>624.4693289785586</v>
+        <v>574.0370498678896</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
-        <v>0.3649309893789943</v>
+        <v>0.3354590831385722</v>
       </c>
       <c r="G2">
-        <v>44.99999999529343</v>
+        <v>44.99999999355204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6580170546041253</v>
+        <v>0.3354590830466703</v>
       </c>
       <c r="G3">
-        <v>9.905283284221765</v>
+        <v>-27.02488376071816</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8835420919224104</v>
+        <v>0.3354590830702964</v>
       </c>
       <c r="G4">
-        <v>2.447496923043595</v>
+        <v>-27.02488374970881</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G5">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G6">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
   </sheetData>
@@ -10505,55 +10505,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.863177714843981</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="D2">
-        <v>4.863177714843981</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>308.8532659060377</v>
+        <v>288.675150957904</v>
       </c>
       <c r="G2">
-        <v>308.8532659060377</v>
+        <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.324394477419387</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497097</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269700827</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.4816112092732</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.324394474104205</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>13.24394453563993</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>1.019215741776075</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.019215741779432</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>0.6942864409584063</v>
+        <v>-8.693515171649831E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.3057135588751</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.280597825194008</v>
+        <v>0.9526279646671965</v>
       </c>
       <c r="O3">
-        <v>0.3322944650683974</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.341247424108698</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>10.99825619233476</v>
+        <v>1.45739135513069E-10</v>
       </c>
       <c r="R3">
-        <v>-75.72850324220332</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>176.6777310737757</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.41949245380395</v>
+        <v>0.9526279646404253</v>
       </c>
       <c r="O4">
-        <v>0.4489790177716168</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.431729696083625</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>10.39348197090714</v>
+        <v>1.564840972581282E-09</v>
       </c>
       <c r="R4">
-        <v>-87.1208700437594</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>172.2800687715841</v>
+        <v>179.9999999984264</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.488990775115979</v>
+        <v>0.9526279646315017</v>
       </c>
       <c r="O5">
-        <v>0.5116484296329764</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.479838924120993</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q5">
-        <v>10.13341963752301</v>
+        <v>2.037876454694116E-09</v>
       </c>
       <c r="R5">
-        <v>-90.79850190153658</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>170.2887202517609</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.488990775115979</v>
+        <v>0.9526279646315017</v>
       </c>
       <c r="O6">
-        <v>0.5116484296329762</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.479838924120993</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q6">
-        <v>10.13341963752301</v>
+        <v>2.037881101507775E-09</v>
       </c>
       <c r="R6">
-        <v>-90.79850190153658</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>170.2887202517609</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
